--- a/data/cva/raw/south_atlantic/Burton_etal_2023_tables.xlsx
+++ b/data/cva/raw/south_atlantic/Burton_etal_2023_tables.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/cva/south_atlantic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/cva/raw/south_atlantic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B930D24A-2053-634F-82E1-D9E01196D0EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA6A497-8383-BF49-8291-CB870C03193F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25980" yWindow="8820" windowWidth="25700" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8000" yWindow="500" windowWidth="24660" windowHeight="19920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
     <sheet name="Figure 4" sheetId="2" r:id="rId2"/>
+    <sheet name="Figure 5" sheetId="3" r:id="rId3"/>
+    <sheet name="Figure 7" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Figure 5'!$A$1:$C$73</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="293">
   <si>
     <r>
       <rPr>
@@ -559,16 +564,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Tilefish</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>Lopholatilus chamaeleonticeps</t>
     </r>
   </si>
@@ -914,9 +909,6 @@
   </si>
   <si>
     <t>Blueline tilefish</t>
-  </si>
-  <si>
-    <t>Tilefish</t>
   </si>
   <si>
     <t>Moderate</t>
@@ -1742,7 +1734,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="204"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> grouper</t>
     </r>
@@ -1755,13 +1747,202 @@
   </si>
   <si>
     <t>Dolphinfish</t>
+  </si>
+  <si>
+    <t>American Shad</t>
+  </si>
+  <si>
+    <t>Rock Shrimp</t>
+  </si>
+  <si>
+    <t>Golden Crab</t>
+  </si>
+  <si>
+    <t>Spiny Lobster</t>
+  </si>
+  <si>
+    <t>Horseshoe Crab</t>
+  </si>
+  <si>
+    <t>Atlantic</t>
+  </si>
+  <si>
+    <t>Blue Crab</t>
+  </si>
+  <si>
+    <t>Warsaw Grouper</t>
+  </si>
+  <si>
+    <t>Nassau Grouper</t>
+  </si>
+  <si>
+    <t>Redband Parrotfish</t>
+  </si>
+  <si>
+    <t>Slippery Dick</t>
+  </si>
+  <si>
+    <t>Emerald Parrotfish</t>
+  </si>
+  <si>
+    <t>Spotted Seatrout</t>
+  </si>
+  <si>
+    <t>Red Grouper</t>
+  </si>
+  <si>
+    <t>Goliath Grouper</t>
+  </si>
+  <si>
+    <t>Golden Tilefish</t>
+  </si>
+  <si>
+    <t>Speckled Hind</t>
+  </si>
+  <si>
+    <t>Blueback Herring</t>
+  </si>
+  <si>
+    <t>Pink Shrimp</t>
+  </si>
+  <si>
+    <t>Brown Shrimp</t>
+  </si>
+  <si>
+    <t>Snowy Grouper</t>
+  </si>
+  <si>
+    <t>Yellowtail Snapper</t>
+  </si>
+  <si>
+    <t>Blueline Tilefish</t>
+  </si>
+  <si>
+    <t>Belted Sandfish</t>
+  </si>
+  <si>
+    <t>Gray Triggerfish</t>
+  </si>
+  <si>
+    <t>White Grunt</t>
+  </si>
+  <si>
+    <t>Red Drum</t>
+  </si>
+  <si>
+    <t>Black Drum</t>
+  </si>
+  <si>
+    <t>Atlantic Croaker</t>
+  </si>
+  <si>
+    <t>White Shrimp</t>
+  </si>
+  <si>
+    <t>Southern Flounder</t>
+  </si>
+  <si>
+    <t>Red Snapper</t>
+  </si>
+  <si>
+    <t>Sand Tiger Shark</t>
+  </si>
+  <si>
+    <t>Vermilion Snapper</t>
+  </si>
+  <si>
+    <t>Red Porgy</t>
+  </si>
+  <si>
+    <t>Bonnethead Shark</t>
+  </si>
+  <si>
+    <t>Greater Amberjack</t>
+  </si>
+  <si>
+    <t>Striped Mullet</t>
+  </si>
+  <si>
+    <t>Striped Bass</t>
+  </si>
+  <si>
+    <t>American Eel</t>
+  </si>
+  <si>
+    <t>King Mackerel</t>
+  </si>
+  <si>
+    <t>Almaco Jack</t>
+  </si>
+  <si>
+    <t>Lane Snapper</t>
+  </si>
+  <si>
+    <t>Dusky Shark</t>
+  </si>
+  <si>
+    <t>Blue Runner</t>
+  </si>
+  <si>
+    <t>Spanish Mackerel</t>
+  </si>
+  <si>
+    <t>Gray Snapper</t>
+  </si>
+  <si>
+    <t>Little Tunny</t>
+  </si>
+  <si>
+    <t>Mutton Snapper</t>
+  </si>
+  <si>
+    <t>Black Sea Bass</t>
+  </si>
+  <si>
+    <t>Sandbar Shark</t>
+  </si>
+  <si>
+    <t>Spiny Dogfish</t>
+  </si>
+  <si>
+    <t>Atlantic Menhaden</t>
+  </si>
+  <si>
+    <t>dir_effect</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>Golden tilefish</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>dist_change</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>Atlantic Sturgeon</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Based on Figure 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1785,6 +1966,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1806,17 +1993,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1837,9 +2027,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1877,9 +2067,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1912,26 +2102,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1964,26 +2137,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2159,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2172,13 +2328,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2230,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -2460,11 +2616,11 @@
       <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C27" t="s">
         <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2472,494 +2628,494 @@
         <v>46</v>
       </c>
       <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
         <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>58</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
         <v>60</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
         <v>62</v>
-      </c>
-      <c r="C31" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
         <v>64</v>
-      </c>
-      <c r="C32" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
         <v>66</v>
-      </c>
-      <c r="C33" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
         <v>68</v>
-      </c>
-      <c r="C34" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>71</v>
-      </c>
-      <c r="C35" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
         <v>73</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
         <v>75</v>
-      </c>
-      <c r="C37" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>78</v>
-      </c>
-      <c r="C38" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" t="s">
         <v>176</v>
-      </c>
-      <c r="B47" t="s">
-        <v>177</v>
-      </c>
-      <c r="C47" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" t="s">
         <v>183</v>
       </c>
-      <c r="B51" t="s">
-        <v>185</v>
-      </c>
       <c r="C51" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C53" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C54" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B55" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C56" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B57" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C57" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B58" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B59" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B60" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C60" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C61" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B62" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C62" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B63" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C63" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B64" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C65" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B66" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C66" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B67" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C67" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B68" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C68" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B69" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C69" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B70" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C70" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B71" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C71" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B72" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C72" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2975,8 +3131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AE8F90-D2EC-0343-B75E-3C1F18F0F83C}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2990,1226 +3146,2665 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" t="s">
-        <v>86</v>
-      </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
         <v>83</v>
-      </c>
-      <c r="E1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" t="s">
-        <v>90</v>
-      </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
         <v>112</v>
       </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>114</v>
-      </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D43" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
         <v>135</v>
       </c>
-      <c r="B49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" t="s">
-        <v>137</v>
-      </c>
       <c r="D49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D52" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D57" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D59" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D61" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E62" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E63" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E64" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D65" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E65" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E67" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D68" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E68" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E69" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D71" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E71" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F159D715-5F54-BE4A-8B9E-384093177357}">
+  <dimension ref="A1:D73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C73" xr:uid="{F159D715-5F54-BE4A-8B9E-384093177357}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C73">
+      <sortCondition ref="A1:A73"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D919ADB-85CB-A84D-857A-C08698A261BE}">
+  <dimension ref="A1:B72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B72" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" t="s">
-        <v>159</v>
-      </c>
-      <c r="D72" t="s">
-        <v>161</v>
-      </c>
-      <c r="E72" t="s">
-        <v>112</v>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
